--- a/public/e911_customers.xlsx
+++ b/public/e911_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE310011-C93B-4BBB-960E-6386840FBBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F9CEE5-108C-4013-AB6C-C0C644C147C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E31156FD-BABD-4C42-8B29-013C8EC31294}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Account Name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>8b3fd732-0455-4aeb-b32c-bd1d9dcae45d</t>
+  </si>
+  <si>
+    <t>Last modified by</t>
+  </si>
+  <si>
+    <t>Created date &amp; time</t>
   </si>
 </sst>
 </file>
@@ -439,27 +445,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA92AA3-95C8-4713-99E4-40BBA22F7175}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -467,7 +481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -483,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -491,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>

--- a/public/e911_customers.xlsx
+++ b/public/e911_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F9CEE5-108C-4013-AB6C-C0C644C147C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2AC108-4393-4E5F-90B5-0A4859202E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E31156FD-BABD-4C42-8B29-013C8EC31294}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>Last modified by</t>
   </si>
   <si>
-    <t>Created date &amp; time</t>
+    <t>Last modified date &amp; time</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/public/e911_customers.xlsx
+++ b/public/e911_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2AC108-4393-4E5F-90B5-0A4859202E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56042F9-9FEE-41C0-95AE-AC28E162C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E31156FD-BABD-4C42-8B29-013C8EC31294}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Account Name</t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>Last modified date &amp; time</t>
+  </si>
+  <si>
+    <t>jareen</t>
+  </si>
+  <si>
+    <t>10/07/2024 10:32PM</t>
+  </si>
+  <si>
+    <t>anjani</t>
+  </si>
+  <si>
+    <t>15/03/2024 11:03PM</t>
+  </si>
+  <si>
+    <t>sindhuja</t>
+  </si>
+  <si>
+    <t>22/05/2024 9:32AM</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>17/05/2024 5:32PM</t>
+  </si>
+  <si>
+    <t>lohitha</t>
+  </si>
+  <si>
+    <t>27/06/2024 08:32AM</t>
   </si>
 </sst>
 </file>
@@ -448,15 +478,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C7" sqref="C7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -480,6 +510,12 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -488,6 +524,12 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -496,6 +538,12 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -504,6 +552,12 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -511,6 +565,12 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
